--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3349.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3349.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201925949035244</v>
+        <v>1.693909287452698</v>
       </c>
       <c r="B1">
-        <v>2.749958057103503</v>
+        <v>3.757834196090698</v>
       </c>
       <c r="C1">
-        <v>7.014158412528404</v>
+        <v>2.967264652252197</v>
       </c>
       <c r="D1">
-        <v>2.135545761555218</v>
+        <v>2.396448373794556</v>
       </c>
       <c r="E1">
-        <v>1.179403507772522</v>
+        <v>1.448315620422363</v>
       </c>
     </row>
   </sheetData>
